--- a/rawdata/LSPG_sparkTests.xlsx
+++ b/rawdata/LSPG_sparkTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emmanuel\Dropbox\Schoolwork\MSc Aerospace Eng\Thesis\Phase 3 AIT\LSPG Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2AA43C-3441-4B42-81EE-C991EF65DAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD29767-B798-4821-A778-4D104E7D3BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{DAF529E0-A900-40F9-9279-963D165F0402}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Actual Pressure Small [bar]</t>
   </si>
@@ -49,13 +49,19 @@
   <si>
     <t>Big Gap Size [mm]</t>
   </si>
+  <si>
+    <t>Mid Gap Size</t>
+  </si>
+  <si>
+    <t>Actual Pressure Mid [bar]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -88,7 +94,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -271,8 +277,88 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mid Gap</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F19-4955-90DF-C086262623AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>Large Gap</c:v>
           </c:tx>
@@ -603,7 +689,7 @@
           <c:x val="0.7622454068241471"/>
           <c:y val="0.19949074074074077"/>
           <c:w val="0.14946879157496165"/>
-          <c:h val="0.15625115057274375"/>
+          <c:h val="0.23437672585911559"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1573,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5E01F2-CD53-44B9-BFDF-F2BF02A37800}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1586,7 +1672,7 @@
     <col min="4" max="4" width="20.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1599,8 +1685,14 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>4.75</v>
       </c>
@@ -1613,8 +1705,14 @@
       <c r="D2" s="1">
         <v>1.02</v>
       </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>4.75</v>
       </c>
@@ -1627,8 +1725,14 @@
       <c r="D3">
         <v>2.9849999999999999</v>
       </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.1289999999999996</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>4.75</v>
       </c>
@@ -1641,8 +1745,14 @@
       <c r="D4">
         <v>5.0739999999999998</v>
       </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10.3</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4.75</v>
       </c>
@@ -1650,21 +1760,30 @@
         <v>10.050000000000001</v>
       </c>
       <c r="C5" s="1"/>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4.75</v>
       </c>
       <c r="B6" s="1">
         <v>15.07</v>
       </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>4.75</v>
       </c>
       <c r="B7" s="1">
         <v>20.04</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
